--- a/Document/purchaseRequest_DataIntegrasi.xlsx
+++ b/Document/purchaseRequest_DataIntegrasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Katalon Studio\Bio-Farma\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AE943E-1F92-437D-80EE-07A067A10062}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8800F1D1-0FB2-4FA3-959A-33A7D3DB819B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{459CCFCA-0EFC-4357-BE84-3A3B07E8384A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -326,9 +326,6 @@
     <t>ENZAL CHMICALS (INDIA) LTD.</t>
   </si>
   <si>
-    <t>INDIA</t>
-  </si>
-  <si>
     <t>TAKEHARA KAGAKU</t>
   </si>
   <si>
@@ -376,7 +373,25 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>Otomatisai</t>
+    <t>AutomatedTest001</t>
+  </si>
+  <si>
+    <t>AutomatedTest002</t>
+  </si>
+  <si>
+    <t>M-AutomatedTest1</t>
+  </si>
+  <si>
+    <t>M-AutomatedTest2</t>
+  </si>
+  <si>
+    <t>Otomatisasi</t>
+  </si>
+  <si>
+    <t>VATIKAN</t>
+  </si>
+  <si>
+    <t>JP-SAMPLE00019</t>
   </si>
 </sst>
 </file>
@@ -824,7 +839,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R6" sqref="R6"/>
+      <selection pane="topRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>12</v>
@@ -908,20 +923,20 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10">
-        <v>87654323456</v>
+      <c r="C2" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="D2" s="5">
-        <v>44200</v>
-      </c>
-      <c r="E2" s="10">
-        <v>98756454</v>
+        <v>45295</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>250</v>
@@ -948,16 +963,16 @@
         <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="11">
         <v>3535</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -967,20 +982,20 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="10">
-        <v>45678976543</v>
+      <c r="C3" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="5">
-        <v>44200</v>
-      </c>
-      <c r="E3" s="10">
-        <v>35654645</v>
+        <v>45326</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>750</v>
@@ -1004,16 +1019,19 @@
         <v>20250000</v>
       </c>
       <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
         <v>56</v>
-      </c>
-      <c r="P3" t="s">
-        <v>57</v>
       </c>
       <c r="Q3" s="11">
         <v>1324</v>
       </c>
+      <c r="R3" t="s">
+        <v>68</v>
+      </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
